--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_20-35.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_20-35.xlsx
@@ -224,6 +224,12 @@
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
   </si>
   <si>
@@ -281,9 +287,6 @@
     <t>MARCAL 30 TABLETS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -329,6 +332,9 @@
     <t>PERLOC 40MG 14 F.C.TAB.</t>
   </si>
   <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -525,6 +531,9 @@
   </si>
   <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
+  </si>
+  <si>
+    <t>مناديل مبلله كبيره</t>
   </si>
   <si>
     <t>مولفيكس رقم 1</t>
@@ -2475,13 +2484,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
@@ -2493,7 +2502,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2501,17 +2510,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2527,17 +2536,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2545,7 +2554,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2553,17 +2562,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2571,7 +2580,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2579,17 +2588,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.040000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2605,17 +2614,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2623,7 +2632,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2631,13 +2640,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2649,7 +2658,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2657,13 +2666,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2675,7 +2684,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2693,7 +2702,7 @@
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2701,7 +2710,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2709,17 +2718,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2727,7 +2736,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2735,13 +2744,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2753,7 +2762,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2761,13 +2770,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2779,7 +2788,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2787,13 +2796,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2805,7 +2814,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2813,17 +2822,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2831,7 +2840,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2839,17 +2848,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>720</v>
+        <v>39</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>3</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2857,7 +2866,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2871,11 +2880,11 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>41</v>
+        <v>720</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2883,7 +2892,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2891,17 +2900,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>0.67000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2917,17 +2926,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2943,13 +2952,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
@@ -2969,13 +2978,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -3001,7 +3010,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -3021,13 +3030,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>136.5</v>
+        <v>67</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -3053,7 +3062,7 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>380</v>
+        <v>136.5</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -3073,13 +3082,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
@@ -3099,13 +3108,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -3125,13 +3134,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
@@ -3151,13 +3160,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3183,7 +3192,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3203,13 +3212,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3229,17 +3238,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>21.620000000000001</v>
+        <v>102</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3247,7 +3256,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3255,17 +3264,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>75</v>
+        <v>21.620000000000001</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3281,13 +3290,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3307,17 +3316,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3325,7 +3334,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3333,13 +3342,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3351,7 +3360,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3359,17 +3368,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3385,17 +3394,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>14.1</v>
+        <v>125</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3403,7 +3412,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3411,13 +3420,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
@@ -3429,7 +3438,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3437,17 +3446,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>33.600000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3469,7 +3478,7 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
@@ -3489,13 +3498,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>39</v>
+        <v>33.600000000000001</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
@@ -3507,7 +3516,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3515,17 +3524,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3533,7 +3542,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3541,13 +3550,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>149.5</v>
+        <v>39</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
@@ -3559,7 +3568,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3567,17 +3576,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3593,17 +3602,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>168</v>
+        <v>149.5</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3619,17 +3628,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3645,17 +3654,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3671,17 +3680,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3697,13 +3706,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
@@ -3723,17 +3732,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3749,17 +3758,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3781,7 +3790,7 @@
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
@@ -3801,17 +3810,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3833,7 +3842,7 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
@@ -3853,17 +3862,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3879,17 +3888,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3905,17 +3914,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3931,17 +3940,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3957,13 +3966,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
@@ -3983,17 +3992,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>0.66000000000000003</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4001,7 +4010,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4009,17 +4018,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>27.280000000000001</v>
+        <v>26</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4027,7 +4036,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4035,17 +4044,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4053,7 +4062,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4061,17 +4070,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>245</v>
+        <v>27.280000000000001</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4093,7 +4102,7 @@
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
@@ -4113,13 +4122,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>23.5</v>
+        <v>245</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
@@ -4131,7 +4140,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4139,13 +4148,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
@@ -4157,7 +4166,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4165,13 +4174,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>50</v>
+        <v>23.5</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
@@ -4183,7 +4192,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4191,13 +4200,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
@@ -4209,7 +4218,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4217,17 +4226,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4235,7 +4244,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4243,17 +4252,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4261,7 +4270,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4269,17 +4278,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4287,7 +4296,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4295,17 +4304,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4313,7 +4322,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4321,17 +4330,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4339,7 +4348,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4347,13 +4356,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
@@ -4365,7 +4374,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4373,17 +4382,17 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4391,7 +4400,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4399,13 +4408,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
@@ -4417,7 +4426,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4425,13 +4434,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
@@ -4443,7 +4452,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4451,13 +4460,13 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
@@ -4469,7 +4478,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4477,13 +4486,13 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10">
@@ -4495,7 +4504,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4503,13 +4512,13 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="10">
@@ -4521,7 +4530,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4529,13 +4538,13 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10">
@@ -4555,51 +4564,129 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="137" ht="26.25" customHeight="1">
-      <c r="K137" s="11">
-        <v>12184.549999999999</v>
-      </c>
-      <c r="L137" s="11"/>
-      <c r="M137" s="11"/>
-      <c r="N137" s="11"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="12">
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="6">
+        <v>134</v>
+      </c>
+      <c t="s" r="B137" s="7">
         <v>173</v>
       </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c t="s" r="F138" s="13">
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c t="s" r="H137" s="8">
+        <v>149</v>
+      </c>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="9">
+        <v>20</v>
+      </c>
+      <c r="M137" s="9"/>
+      <c r="N137" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" ht="25.5" customHeight="1">
+      <c r="A138" s="6">
+        <v>135</v>
+      </c>
+      <c t="s" r="B138" s="7">
         <v>174</v>
       </c>
-      <c r="G138" s="13"/>
-      <c r="H138" s="14"/>
-      <c t="s" r="I138" s="15">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c t="s" r="H138" s="8">
+        <v>75</v>
+      </c>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="9">
+        <v>30</v>
+      </c>
+      <c r="M138" s="9"/>
+      <c r="N138" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" ht="24.75" customHeight="1">
+      <c r="A139" s="6">
+        <v>136</v>
+      </c>
+      <c t="s" r="B139" s="7">
         <v>175</v>
       </c>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-      <c r="N138" s="15"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c t="s" r="H139" s="8">
+        <v>11</v>
+      </c>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="9">
+        <v>300</v>
+      </c>
+      <c r="M139" s="9"/>
+      <c r="N139" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" ht="26.25" customHeight="1">
+      <c r="K140" s="11">
+        <v>12320.549999999999</v>
+      </c>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="12">
+        <v>176</v>
+      </c>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c t="s" r="F141" s="13">
+        <v>177</v>
+      </c>
+      <c r="G141" s="13"/>
+      <c r="H141" s="14"/>
+      <c t="s" r="I141" s="15">
+        <v>178</v>
+      </c>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="410">
+  <mergeCells count="419">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5006,10 +5093,19 @@
     <mergeCell ref="B136:G136"/>
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
-    <mergeCell ref="K137:N137"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="I138:N138"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="K140:N140"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="I141:N141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
